--- a/电院检查(1)(1)(1).xlsx
+++ b/电院检查(1)(1)(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作资料\规划处\学科\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yang/学习/git_learn/wu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F812D8-FF8D-4F8C-AAB9-6378EA37238D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67BB7C-2AD5-064D-B57F-5C750274DC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC03031F-C799-45FA-B571-C2C4D6E808E1}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{AC03031F-C799-45FA-B571-C2C4D6E808E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>NAME</t>
   </si>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>该作者是否为交大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjsldjfls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,16 +772,16 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -823,7 +827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -840,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -857,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -874,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -891,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -908,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -925,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -942,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -959,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -975,8 +979,11 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1129,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>76</v>
       </c>
